--- a/data/rna/ncbi/MIMS.me.host-associated.6.0.xlsx
+++ b/data/rna/ncbi/MIMS.me.host-associated.6.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/rna/ncbi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6128A5-0D1A-3549-8236-76A9EC7FEA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881491F4-ED88-7249-BCF7-069246FCD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1260" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="760" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIMS.me.host-associated.6.0" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -1857,12 +1857,15 @@
   <si>
     <t>Pocillopora sp. coral holobiont</t>
   </si>
+  <si>
+    <t>PRJNA1337181</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1940,6 +1943,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2009,11 +2018,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,9 +2336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D74" sqref="D74"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2676,13 +2685,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B13" t="s">
         <v>150</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>224</v>
       </c>
@@ -2704,7 +2716,7 @@
       <c r="J13" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL13" t="s">
@@ -2732,13 +2744,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>151</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>224</v>
       </c>
@@ -2760,7 +2775,7 @@
       <c r="J14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL14" t="s">
@@ -2781,20 +2796,23 @@
       <c r="BR14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BS14" s="9">
+      <c r="BS14" s="8">
         <v>30</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>152</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>224</v>
       </c>
@@ -2816,7 +2834,7 @@
       <c r="J15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL15" t="s">
@@ -2844,13 +2862,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>153</v>
       </c>
+      <c r="C16" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>225</v>
       </c>
@@ -2872,7 +2893,7 @@
       <c r="J16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL16" t="s">
@@ -2900,13 +2921,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>154</v>
       </c>
+      <c r="C17" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>225</v>
       </c>
@@ -2928,7 +2952,7 @@
       <c r="J17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL17" t="s">
@@ -2956,13 +2980,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>155</v>
       </c>
+      <c r="C18" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>224</v>
       </c>
@@ -2984,7 +3011,7 @@
       <c r="J18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL18" t="s">
@@ -3005,20 +3032,23 @@
       <c r="BR18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BS18" s="9">
+      <c r="BS18" s="8">
         <v>27</v>
       </c>
       <c r="BT18" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>156</v>
       </c>
+      <c r="C19" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>225</v>
       </c>
@@ -3040,7 +3070,7 @@
       <c r="J19" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL19" t="s">
@@ -3068,13 +3098,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>157</v>
       </c>
+      <c r="C20" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>224</v>
       </c>
@@ -3096,7 +3129,7 @@
       <c r="J20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL20" t="s">
@@ -3124,13 +3157,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>158</v>
       </c>
+      <c r="C21" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>224</v>
       </c>
@@ -3152,7 +3188,7 @@
       <c r="J21" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL21" t="s">
@@ -3180,13 +3216,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>159</v>
       </c>
+      <c r="C22" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>225</v>
       </c>
@@ -3208,7 +3247,7 @@
       <c r="J22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL22" t="s">
@@ -3236,13 +3275,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>160</v>
       </c>
+      <c r="C23" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>225</v>
       </c>
@@ -3264,7 +3306,7 @@
       <c r="J23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL23" t="s">
@@ -3285,20 +3327,23 @@
       <c r="BR23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BS23" s="9">
+      <c r="BS23" s="8">
         <v>33</v>
       </c>
       <c r="BT23" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>161</v>
       </c>
+      <c r="C24" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>224</v>
       </c>
@@ -3320,7 +3365,7 @@
       <c r="J24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL24" t="s">
@@ -3348,13 +3393,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>162</v>
       </c>
+      <c r="C25" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>225</v>
       </c>
@@ -3376,7 +3424,7 @@
       <c r="J25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL25" t="s">
@@ -3404,13 +3452,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>163</v>
       </c>
+      <c r="C26" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>225</v>
       </c>
@@ -3432,7 +3483,7 @@
       <c r="J26" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL26" t="s">
@@ -3453,20 +3504,23 @@
       <c r="BR26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BS26" s="9">
+      <c r="BS26" s="8">
         <v>27</v>
       </c>
       <c r="BT26" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>164</v>
       </c>
+      <c r="C27" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>225</v>
       </c>
@@ -3488,7 +3542,7 @@
       <c r="J27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL27" t="s">
@@ -3516,13 +3570,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B28" t="s">
         <v>165</v>
       </c>
+      <c r="C28" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>225</v>
       </c>
@@ -3544,7 +3601,7 @@
       <c r="J28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL28" t="s">
@@ -3572,13 +3629,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B29" t="s">
         <v>166</v>
       </c>
+      <c r="C29" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>225</v>
       </c>
@@ -3600,7 +3660,7 @@
       <c r="J29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL29" t="s">
@@ -3621,20 +3681,23 @@
       <c r="BR29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BS29" s="9">
+      <c r="BS29" s="8">
         <v>27</v>
       </c>
       <c r="BT29" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>167</v>
       </c>
+      <c r="C30" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>224</v>
       </c>
@@ -3656,7 +3719,7 @@
       <c r="J30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL30" t="s">
@@ -3684,13 +3747,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B31" t="s">
         <v>168</v>
       </c>
+      <c r="C31" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>225</v>
       </c>
@@ -3712,7 +3778,7 @@
       <c r="J31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL31" t="s">
@@ -3740,13 +3806,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B32" t="s">
         <v>169</v>
       </c>
+      <c r="C32" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>224</v>
       </c>
@@ -3768,7 +3837,7 @@
       <c r="J32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL32" t="s">
@@ -3796,13 +3865,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>170</v>
       </c>
+      <c r="C33" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>224</v>
       </c>
@@ -3824,7 +3896,7 @@
       <c r="J33" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL33" t="s">
@@ -3852,13 +3924,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B34" t="s">
         <v>171</v>
       </c>
+      <c r="C34" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>225</v>
       </c>
@@ -3880,7 +3955,7 @@
       <c r="J34" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL34" t="s">
@@ -3908,13 +3983,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B35" t="s">
         <v>172</v>
       </c>
+      <c r="C35" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>224</v>
       </c>
@@ -3936,7 +4014,7 @@
       <c r="J35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL35" t="s">
@@ -3957,20 +4035,23 @@
       <c r="BR35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BS35" s="9">
+      <c r="BS35" s="8">
         <v>30</v>
       </c>
       <c r="BT35" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>173</v>
       </c>
+      <c r="C36" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>224</v>
       </c>
@@ -3992,7 +4073,7 @@
       <c r="J36" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL36" t="s">
@@ -4020,13 +4101,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B37" t="s">
         <v>174</v>
       </c>
+      <c r="C37" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>225</v>
       </c>
@@ -4048,7 +4132,7 @@
       <c r="J37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL37" t="s">
@@ -4069,20 +4153,23 @@
       <c r="BR37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BS37" s="9">
+      <c r="BS37" s="8">
         <v>30</v>
       </c>
       <c r="BT37" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B38" t="s">
         <v>175</v>
       </c>
+      <c r="C38" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>225</v>
       </c>
@@ -4104,7 +4191,7 @@
       <c r="J38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL38" t="s">
@@ -4132,13 +4219,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B39" t="s">
         <v>176</v>
       </c>
+      <c r="C39" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>224</v>
       </c>
@@ -4160,7 +4250,7 @@
       <c r="J39" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL39" t="s">
@@ -4181,20 +4271,23 @@
       <c r="BR39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BS39" s="9">
+      <c r="BS39" s="8">
         <v>27</v>
       </c>
       <c r="BT39" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B40" t="s">
         <v>177</v>
       </c>
+      <c r="C40" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>224</v>
       </c>
@@ -4216,7 +4309,7 @@
       <c r="J40" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL40" t="s">
@@ -4237,20 +4330,23 @@
       <c r="BR40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BS40" s="9">
+      <c r="BS40" s="8">
         <v>30</v>
       </c>
       <c r="BT40" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B41" t="s">
         <v>178</v>
       </c>
+      <c r="C41" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>224</v>
       </c>
@@ -4272,7 +4368,7 @@
       <c r="J41" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL41" t="s">
@@ -4293,20 +4389,23 @@
       <c r="BR41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BS41" s="9">
+      <c r="BS41" s="8">
         <v>30</v>
       </c>
       <c r="BT41" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B42" t="s">
         <v>179</v>
       </c>
+      <c r="C42" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>225</v>
       </c>
@@ -4328,7 +4427,7 @@
       <c r="J42" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL42" t="s">
@@ -4356,13 +4455,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B43" t="s">
         <v>180</v>
       </c>
+      <c r="C43" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>225</v>
       </c>
@@ -4384,7 +4486,7 @@
       <c r="J43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL43" t="s">
@@ -4405,20 +4507,23 @@
       <c r="BR43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BS43" s="9">
+      <c r="BS43" s="8">
         <v>27</v>
       </c>
       <c r="BT43" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B44" t="s">
         <v>181</v>
       </c>
+      <c r="C44" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>224</v>
       </c>
@@ -4440,7 +4545,7 @@
       <c r="J44" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL44" t="s">
@@ -4461,20 +4566,23 @@
       <c r="BR44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BS44" s="9">
+      <c r="BS44" s="8">
         <v>33</v>
       </c>
       <c r="BT44" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B45" t="s">
         <v>182</v>
       </c>
+      <c r="C45" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>225</v>
       </c>
@@ -4496,7 +4604,7 @@
       <c r="J45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL45" t="s">
@@ -4517,20 +4625,23 @@
       <c r="BR45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BS45" s="9">
+      <c r="BS45" s="8">
         <v>33</v>
       </c>
       <c r="BT45" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B46" t="s">
         <v>183</v>
       </c>
+      <c r="C46" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
@@ -4552,7 +4663,7 @@
       <c r="J46" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL46" t="s">
@@ -4580,13 +4691,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B47" t="s">
         <v>184</v>
       </c>
+      <c r="C47" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>224</v>
       </c>
@@ -4608,7 +4722,7 @@
       <c r="J47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL47" t="s">
@@ -4629,20 +4743,23 @@
       <c r="BR47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BS47" s="9">
+      <c r="BS47" s="8">
         <v>27</v>
       </c>
       <c r="BT47" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B48" t="s">
         <v>185</v>
       </c>
+      <c r="C48" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>224</v>
       </c>
@@ -4664,7 +4781,7 @@
       <c r="J48" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL48" t="s">
@@ -4685,20 +4802,23 @@
       <c r="BR48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BS48" s="9">
+      <c r="BS48" s="8">
         <v>33</v>
       </c>
       <c r="BT48" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B49" t="s">
         <v>186</v>
       </c>
+      <c r="C49" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>224</v>
       </c>
@@ -4720,7 +4840,7 @@
       <c r="J49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL49" t="s">
@@ -4748,13 +4868,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B50" t="s">
         <v>187</v>
       </c>
+      <c r="C50" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>225</v>
       </c>
@@ -4776,7 +4899,7 @@
       <c r="J50" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL50" t="s">
@@ -4804,13 +4927,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B51" t="s">
         <v>188</v>
       </c>
+      <c r="C51" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>224</v>
       </c>
@@ -4832,7 +4958,7 @@
       <c r="J51" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL51" t="s">
@@ -4860,13 +4986,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>189</v>
       </c>
+      <c r="C52" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>224</v>
       </c>
@@ -4888,7 +5017,7 @@
       <c r="J52" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL52" t="s">
@@ -4916,13 +5045,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B53" t="s">
         <v>190</v>
       </c>
+      <c r="C53" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>224</v>
       </c>
@@ -4944,7 +5076,7 @@
       <c r="J53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL53" t="s">
@@ -4972,13 +5104,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B54" t="s">
         <v>191</v>
       </c>
+      <c r="C54" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>224</v>
       </c>
@@ -5000,7 +5135,7 @@
       <c r="J54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL54" t="s">
@@ -5021,20 +5156,23 @@
       <c r="BR54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BS54" s="9">
+      <c r="BS54" s="8">
         <v>33</v>
       </c>
       <c r="BT54" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B55" t="s">
         <v>192</v>
       </c>
+      <c r="C55" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>224</v>
       </c>
@@ -5056,7 +5194,7 @@
       <c r="J55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL55" t="s">
@@ -5077,20 +5215,23 @@
       <c r="BR55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BS55" s="9">
+      <c r="BS55" s="8">
         <v>27</v>
       </c>
       <c r="BT55" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B56" t="s">
         <v>193</v>
       </c>
+      <c r="C56" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>224</v>
       </c>
@@ -5112,7 +5253,7 @@
       <c r="J56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL56" t="s">
@@ -5133,20 +5274,23 @@
       <c r="BR56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BS56" s="9">
+      <c r="BS56" s="8">
         <v>30</v>
       </c>
       <c r="BT56" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B57" t="s">
         <v>194</v>
       </c>
+      <c r="C57" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>225</v>
       </c>
@@ -5168,7 +5312,7 @@
       <c r="J57" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL57" t="s">
@@ -5196,13 +5340,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B58" t="s">
         <v>195</v>
       </c>
+      <c r="C58" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>224</v>
       </c>
@@ -5224,7 +5371,7 @@
       <c r="J58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL58" t="s">
@@ -5245,20 +5392,23 @@
       <c r="BR58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BS58" s="9">
+      <c r="BS58" s="8">
         <v>33</v>
       </c>
       <c r="BT58" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B59" t="s">
         <v>196</v>
       </c>
+      <c r="C59" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>225</v>
       </c>
@@ -5280,7 +5430,7 @@
       <c r="J59" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL59" t="s">
@@ -5301,20 +5451,23 @@
       <c r="BR59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BS59" s="9">
+      <c r="BS59" s="8">
         <v>30</v>
       </c>
       <c r="BT59" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B60" t="s">
         <v>197</v>
       </c>
+      <c r="C60" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>224</v>
       </c>
@@ -5336,7 +5489,7 @@
       <c r="J60" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL60" t="s">
@@ -5364,13 +5517,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B61" t="s">
         <v>198</v>
       </c>
+      <c r="C61" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>225</v>
       </c>
@@ -5392,7 +5548,7 @@
       <c r="J61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL61" t="s">
@@ -5420,13 +5576,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B62" t="s">
         <v>199</v>
       </c>
+      <c r="C62" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>224</v>
       </c>
@@ -5448,7 +5607,7 @@
       <c r="J62" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL62" t="s">
@@ -5469,20 +5628,23 @@
       <c r="BR62" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BS62" s="9">
+      <c r="BS62" s="8">
         <v>33</v>
       </c>
       <c r="BT62" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B63" t="s">
         <v>200</v>
       </c>
+      <c r="C63" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>225</v>
       </c>
@@ -5504,7 +5666,7 @@
       <c r="J63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL63" t="s">
@@ -5532,13 +5694,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B64" t="s">
         <v>201</v>
       </c>
+      <c r="C64" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>225</v>
       </c>
@@ -5560,7 +5725,7 @@
       <c r="J64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL64" t="s">
@@ -5588,13 +5753,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B65" t="s">
         <v>202</v>
       </c>
+      <c r="C65" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>224</v>
       </c>
@@ -5616,7 +5784,7 @@
       <c r="J65" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL65" t="s">
@@ -5637,20 +5805,23 @@
       <c r="BR65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BS65" s="9">
+      <c r="BS65" s="8">
         <v>27</v>
       </c>
       <c r="BT65" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B66" t="s">
         <v>203</v>
       </c>
+      <c r="C66" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>224</v>
       </c>
@@ -5672,7 +5843,7 @@
       <c r="J66" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL66" t="s">
@@ -5693,20 +5864,23 @@
       <c r="BR66" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BS66" s="9">
+      <c r="BS66" s="8">
         <v>27</v>
       </c>
       <c r="BT66" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B67" t="s">
         <v>204</v>
       </c>
+      <c r="C67" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>225</v>
       </c>
@@ -5728,7 +5902,7 @@
       <c r="J67" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL67" t="s">
@@ -5749,20 +5923,23 @@
       <c r="BR67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BS67" s="9">
+      <c r="BS67" s="8">
         <v>30</v>
       </c>
       <c r="BT67" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B68" t="s">
         <v>205</v>
       </c>
+      <c r="C68" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>224</v>
       </c>
@@ -5784,7 +5961,7 @@
       <c r="J68" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL68" t="s">
@@ -5812,13 +5989,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B69" t="s">
         <v>206</v>
       </c>
+      <c r="C69" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>224</v>
       </c>
@@ -5840,7 +6020,7 @@
       <c r="J69" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL69" t="s">
@@ -5868,13 +6048,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B70" t="s">
         <v>207</v>
       </c>
+      <c r="C70" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>225</v>
       </c>
@@ -5896,7 +6079,7 @@
       <c r="J70" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL70" t="s">
@@ -5924,13 +6107,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B71" t="s">
         <v>208</v>
       </c>
+      <c r="C71" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>224</v>
       </c>
@@ -5952,7 +6138,7 @@
       <c r="J71" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL71" t="s">
@@ -5973,20 +6159,23 @@
       <c r="BR71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BS71" s="9">
+      <c r="BS71" s="8">
         <v>30</v>
       </c>
       <c r="BT71" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B72" t="s">
         <v>209</v>
       </c>
+      <c r="C72" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>224</v>
       </c>
@@ -6008,7 +6197,7 @@
       <c r="J72" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL72" t="s">
@@ -6036,13 +6225,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B73" t="s">
         <v>210</v>
       </c>
+      <c r="C73" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>225</v>
       </c>
@@ -6064,7 +6256,7 @@
       <c r="J73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL73" t="s">
@@ -6085,20 +6277,23 @@
       <c r="BR73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BS73" s="9">
+      <c r="BS73" s="8">
         <v>33</v>
       </c>
       <c r="BT73" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B74" t="s">
         <v>211</v>
       </c>
+      <c r="C74" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>225</v>
       </c>
@@ -6120,7 +6315,7 @@
       <c r="J74" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL74" t="s">
@@ -6141,20 +6336,23 @@
       <c r="BR74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BS74" s="9">
+      <c r="BS74" s="8">
         <v>33</v>
       </c>
       <c r="BT74" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B75" t="s">
         <v>212</v>
       </c>
+      <c r="C75" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>224</v>
       </c>
@@ -6176,7 +6374,7 @@
       <c r="J75" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="9" t="s">
         <v>222</v>
       </c>
       <c r="AL75" t="s">
@@ -6197,20 +6395,23 @@
       <c r="BR75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BS75" s="9">
+      <c r="BS75" s="8">
         <v>30</v>
       </c>
       <c r="BT75" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:72" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B76" t="s">
         <v>213</v>
       </c>
+      <c r="C76" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>224</v>
       </c>
@@ -6232,10 +6433,10 @@
       <c r="J76" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="AL76" s="8" t="s">
+      <c r="AL76" t="s">
         <v>215</v>
       </c>
       <c r="AS76" s="1" t="s">
@@ -6253,7 +6454,7 @@
       <c r="BR76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BS76" s="9">
+      <c r="BS76" s="8">
         <v>33</v>
       </c>
       <c r="BT76" s="1" t="s">
